--- a/formats/regpexpr/rg_curseurs.xlsx
+++ b/formats/regpexpr/rg_curseurs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr_reshape/formats/regpexpr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/regpexpr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB142C53-B5CD-A145-9889-C8AB526DD3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2AE16C-C42E-3941-9A63-FBB81E54FC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="460" windowWidth="27340" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="30">
   <si>
     <t>table</t>
   </si>
@@ -172,13 +172,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="141" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -515,7 +512,7 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>2017</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -532,7 +529,7 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>2017</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -549,7 +546,7 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2017</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -566,7 +563,7 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2017</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1467,7 +1464,7 @@
       <c r="A58" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>2017</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -1484,7 +1481,7 @@
       <c r="A59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>2017</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -1501,7 +1498,7 @@
       <c r="A60" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>2017</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -1518,7 +1515,7 @@
       <c r="A61" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>2017</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1532,10 +1529,10 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+      <c r="A62" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62">
         <v>2016</v>
       </c>
       <c r="C62" t="s">
@@ -1549,10 +1546,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63">
         <v>2016</v>
       </c>
       <c r="C63" t="s">
@@ -1566,10 +1563,10 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64">
         <v>2016</v>
       </c>
       <c r="C64" t="s">
@@ -1583,10 +1580,10 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+      <c r="A65" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65">
         <v>2015</v>
       </c>
       <c r="C65" t="s">
@@ -1600,10 +1597,10 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66">
         <v>2015</v>
       </c>
       <c r="C66" t="s">
@@ -1617,10 +1614,10 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67">
         <v>2015</v>
       </c>
       <c r="C67" t="s">
@@ -1637,7 +1634,7 @@
       <c r="A68" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>2018</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -1654,7 +1651,7 @@
       <c r="A69" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>2018</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -1671,7 +1668,7 @@
       <c r="A70" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <v>2018</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -1688,7 +1685,7 @@
       <c r="A71" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>2018</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -1705,7 +1702,7 @@
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>2018</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -1722,7 +1719,7 @@
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>2018</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -1739,7 +1736,7 @@
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>2018</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -1756,7 +1753,7 @@
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>2018</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -1773,7 +1770,7 @@
       <c r="A76" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="1">
         <v>2019</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -1790,7 +1787,7 @@
       <c r="A77" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="1">
         <v>2019</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -1807,7 +1804,7 @@
       <c r="A78" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="1">
         <v>2019</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -1824,7 +1821,7 @@
       <c r="A79" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <v>2019</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -1841,7 +1838,7 @@
       <c r="A80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="1">
         <v>2019</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -1858,7 +1855,7 @@
       <c r="A81" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="1">
         <v>2019</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -1875,7 +1872,7 @@
       <c r="A82" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <v>2019</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -1892,7 +1889,7 @@
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="1">
         <v>2019</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -1909,7 +1906,7 @@
       <c r="A84" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="1">
         <v>2020</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -1926,7 +1923,7 @@
       <c r="A85" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="1">
         <v>2020</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -1943,7 +1940,7 @@
       <c r="A86" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="1">
         <v>2020</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -1960,7 +1957,7 @@
       <c r="A87" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="1">
         <v>2020</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -1977,7 +1974,7 @@
       <c r="A88" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="1">
         <v>2020</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -1994,7 +1991,7 @@
       <c r="A89" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="1">
         <v>2020</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -2011,7 +2008,7 @@
       <c r="A90" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="1">
         <v>2020</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -2028,7 +2025,7 @@
       <c r="A91" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="1">
         <v>2020</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -2045,7 +2042,7 @@
       <c r="A92" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="1">
         <v>2021</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -2062,7 +2059,7 @@
       <c r="A93" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="1">
         <v>2021</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -2079,7 +2076,7 @@
       <c r="A94" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="1">
         <v>2021</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -2096,7 +2093,7 @@
       <c r="A95" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="1">
         <v>2021</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -2113,7 +2110,7 @@
       <c r="A96" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="1">
         <v>2021</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -2130,7 +2127,7 @@
       <c r="A97" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="1">
         <v>2021</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -2147,7 +2144,7 @@
       <c r="A98" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="1">
         <v>2021</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -2164,7 +2161,7 @@
       <c r="A99" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="1">
         <v>2021</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -2181,7 +2178,7 @@
       <c r="A100" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="1">
         <v>2022</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -2198,7 +2195,7 @@
       <c r="A101" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="1">
         <v>2022</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -2215,7 +2212,7 @@
       <c r="A102" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="1">
         <v>2022</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -2232,7 +2229,7 @@
       <c r="A103" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="1">
         <v>2022</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -2249,7 +2246,7 @@
       <c r="A104" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="1">
         <v>2022</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -2266,7 +2263,7 @@
       <c r="A105" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="1">
         <v>2022</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -2283,7 +2280,7 @@
       <c r="A106" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="1">
         <v>2022</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -2300,7 +2297,7 @@
       <c r="A107" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="1">
         <v>2022</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -2310,6 +2307,142 @@
         <v>23</v>
       </c>
       <c r="E107" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E114" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115" s="1">
         <v>29</v>
       </c>
     </row>

--- a/formats/regpexpr/rg_curseurs.xlsx
+++ b/formats/regpexpr/rg_curseurs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/regpexpr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2AE16C-C42E-3941-9A63-FBB81E54FC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1B4A3C-FDD5-884B-A6DE-56B5003A650E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="460" windowWidth="27340" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$E$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$E$69</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="36">
   <si>
     <t>table</t>
   </si>
@@ -119,10 +119,28 @@
     <t>.{1,23}</t>
   </si>
   <si>
-    <t>.{1,22}</t>
+    <t>.{1,61}</t>
   </si>
   <si>
-    <t>.{1,61}</t>
+    <t>.{1,20}</t>
+  </si>
+  <si>
+    <t>rha</t>
+  </si>
+  <si>
+    <t>.{1,33}</t>
+  </si>
+  <si>
+    <t>.{1,32}</t>
+  </si>
+  <si>
+    <t>.{1,19}</t>
+  </si>
+  <si>
+    <t>.{1,17}</t>
+  </si>
+  <si>
+    <t>.{1,9}</t>
   </si>
 </sst>
 </file>
@@ -141,14 +159,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -480,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="141" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="141" workbookViewId="0">
+      <selection activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1529,139 +1547,139 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62">
-        <v>2016</v>
-      </c>
-      <c r="C62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62">
-        <v>8</v>
+      <c r="A62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63">
-        <v>2016</v>
-      </c>
-      <c r="C63" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63">
-        <v>35</v>
+      <c r="A63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64">
-        <v>2016</v>
-      </c>
-      <c r="C64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" t="s">
-        <v>27</v>
-      </c>
-      <c r="E64">
+      <c r="A64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65">
-        <v>2015</v>
-      </c>
-      <c r="C65" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65">
-        <v>8</v>
+      <c r="E65" s="1">
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66">
-        <v>2015</v>
-      </c>
-      <c r="C66" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66">
-        <v>35</v>
+      <c r="A66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67">
-        <v>2015</v>
-      </c>
-      <c r="C67" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67">
-        <v>22</v>
+      <c r="A67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B68" s="1">
         <v>2018</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E68" s="1">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B69" s="1">
         <v>2018</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E69" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -1669,16 +1687,16 @@
         <v>17</v>
       </c>
       <c r="B70" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E70" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -1686,50 +1704,50 @@
         <v>17</v>
       </c>
       <c r="B71" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E71" s="1">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B72" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E72" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B73" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E73" s="1">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -1737,16 +1755,16 @@
         <v>5</v>
       </c>
       <c r="B74" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E74" s="1">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -1754,50 +1772,50 @@
         <v>5</v>
       </c>
       <c r="B75" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E75" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B76" s="1">
         <v>2019</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E76" s="1">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B77" s="1">
         <v>2019</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E77" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -1805,16 +1823,16 @@
         <v>17</v>
       </c>
       <c r="B78" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E78" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -1822,50 +1840,50 @@
         <v>17</v>
       </c>
       <c r="B79" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E79" s="1">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B80" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E80" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B81" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E81" s="1">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -1873,16 +1891,16 @@
         <v>5</v>
       </c>
       <c r="B82" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E82" s="1">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -1890,84 +1908,84 @@
         <v>5</v>
       </c>
       <c r="B83" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E83" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B84" s="1">
         <v>2020</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E84" s="1">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B85" s="1">
         <v>2020</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E85" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B86" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E86" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B87" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E87" s="1">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -1975,16 +1993,16 @@
         <v>5</v>
       </c>
       <c r="B88" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E88" s="1">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -1992,84 +2010,84 @@
         <v>5</v>
       </c>
       <c r="B89" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E89" s="1">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B90" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E90" s="1">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B91" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E91" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B92" s="1">
         <v>2021</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E92" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B93" s="1">
         <v>2021</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E93" s="1">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -2077,16 +2095,16 @@
         <v>5</v>
       </c>
       <c r="B94" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E94" s="1">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -2094,50 +2112,50 @@
         <v>5</v>
       </c>
       <c r="B95" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E95" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B96" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E96" s="1">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B97" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E97" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2145,16 +2163,16 @@
         <v>17</v>
       </c>
       <c r="B98" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E98" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2162,50 +2180,50 @@
         <v>17</v>
       </c>
       <c r="B99" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E99" s="1">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B100" s="1">
         <v>2022</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E100" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B101" s="1">
         <v>2022</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E101" s="1">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -2213,16 +2231,16 @@
         <v>5</v>
       </c>
       <c r="B102" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E102" s="1">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -2230,50 +2248,50 @@
         <v>5</v>
       </c>
       <c r="B103" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E103" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B104" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E104" s="1">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B105" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E105" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -2281,16 +2299,16 @@
         <v>17</v>
       </c>
       <c r="B106" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E106" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -2298,155 +2316,1280 @@
         <v>17</v>
       </c>
       <c r="B107" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E107" s="1">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B108" s="1">
         <v>2023</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E108" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B109" s="1">
         <v>2023</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D109" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E109" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>24</v>
+      </c>
+      <c r="B110">
+        <v>2015</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B111">
+        <v>2015</v>
+      </c>
+      <c r="C111" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" t="s">
+        <v>26</v>
+      </c>
+      <c r="E111">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B112">
+        <v>2015</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" t="s">
+        <v>27</v>
+      </c>
+      <c r="E112">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>24</v>
+      </c>
+      <c r="B113">
+        <v>2016</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B114">
+        <v>2016</v>
+      </c>
+      <c r="C114" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" t="s">
+        <v>26</v>
+      </c>
+      <c r="E114">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B115">
+        <v>2016</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116">
+        <v>2017</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B117">
+        <v>2017</v>
+      </c>
+      <c r="C117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" t="s">
+        <v>26</v>
+      </c>
+      <c r="E117">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B118">
+        <v>2017</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" t="s">
+        <v>27</v>
+      </c>
+      <c r="E118">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B119">
+        <v>2018</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B120">
+        <v>2018</v>
+      </c>
+      <c r="C120" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120" t="s">
+        <v>26</v>
+      </c>
+      <c r="E120">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B121">
+        <v>2018</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" t="s">
+        <v>27</v>
+      </c>
+      <c r="E121">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>24</v>
+      </c>
+      <c r="B122">
+        <v>2014</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B123">
+        <v>2014</v>
+      </c>
+      <c r="C123" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" t="s">
+        <v>26</v>
+      </c>
+      <c r="E123">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124">
+        <v>2014</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" t="s">
+        <v>29</v>
+      </c>
+      <c r="E124">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>24</v>
+      </c>
+      <c r="B125">
+        <v>2013</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B126">
+        <v>2013</v>
+      </c>
+      <c r="C126" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" t="s">
+        <v>23</v>
+      </c>
+      <c r="E126">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B127">
+        <v>2013</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" t="s">
+        <v>29</v>
+      </c>
+      <c r="E127">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>24</v>
+      </c>
+      <c r="B128">
+        <v>2012</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B129">
+        <v>2012</v>
+      </c>
+      <c r="C129" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129" t="s">
+        <v>23</v>
+      </c>
+      <c r="E129">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B130">
+        <v>2012</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" t="s">
+        <v>29</v>
+      </c>
+      <c r="E130">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>24</v>
+      </c>
+      <c r="B131">
+        <v>2011</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" t="s">
+        <v>18</v>
+      </c>
+      <c r="E131">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B132">
+        <v>2011</v>
+      </c>
+      <c r="C132" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B133">
+        <v>2011</v>
+      </c>
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" t="s">
+        <v>29</v>
+      </c>
+      <c r="E133">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>24</v>
+      </c>
+      <c r="B134">
+        <v>2020</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B135">
+        <v>2020</v>
+      </c>
+      <c r="C135" t="s">
+        <v>25</v>
+      </c>
+      <c r="D135" t="s">
+        <v>26</v>
+      </c>
+      <c r="E135">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B136">
+        <v>2020</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" t="s">
+        <v>27</v>
+      </c>
+      <c r="E136">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>24</v>
+      </c>
+      <c r="B137">
+        <v>2019</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B138">
+        <v>2019</v>
+      </c>
+      <c r="C138" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" t="s">
+        <v>26</v>
+      </c>
+      <c r="E138">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B139">
+        <v>2019</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" t="s">
+        <v>27</v>
+      </c>
+      <c r="E139">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>24</v>
+      </c>
+      <c r="B140">
+        <v>2021</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141">
+        <v>2021</v>
+      </c>
+      <c r="C141" t="s">
+        <v>25</v>
+      </c>
+      <c r="D141" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B142">
+        <v>2021</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" t="s">
+        <v>27</v>
+      </c>
+      <c r="E142">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>24</v>
+      </c>
+      <c r="B143">
+        <v>2022</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" t="s">
+        <v>18</v>
+      </c>
+      <c r="E143">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B144">
+        <v>2022</v>
+      </c>
+      <c r="C144" t="s">
+        <v>25</v>
+      </c>
+      <c r="D144" t="s">
+        <v>26</v>
+      </c>
+      <c r="E144">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B145">
+        <v>2022</v>
+      </c>
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" t="s">
+        <v>27</v>
+      </c>
+      <c r="E145">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B146">
+        <v>2022</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E109" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B110" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="E146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B147">
+        <v>2022</v>
+      </c>
+      <c r="C147" t="s">
+        <v>25</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E147">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B148">
+        <v>2022</v>
+      </c>
+      <c r="C148" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E110" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B111" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E111" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B112" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E112" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B113" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E113" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B114" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C114" s="1" t="s">
+      <c r="E148">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B149">
+        <v>2021</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B150">
+        <v>2021</v>
+      </c>
+      <c r="C150" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E150">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B151">
+        <v>2021</v>
+      </c>
+      <c r="C151" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E151">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B152">
+        <v>2020</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B153">
+        <v>2020</v>
+      </c>
+      <c r="C153" t="s">
+        <v>25</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E153">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B154">
+        <v>2020</v>
+      </c>
+      <c r="C154" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E154">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B155">
+        <v>2019</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B156">
+        <v>2019</v>
+      </c>
+      <c r="C156" t="s">
+        <v>25</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E156">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B157">
+        <v>2019</v>
+      </c>
+      <c r="C157" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E157">
         <v>19</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E114" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B115" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E115" s="1">
-        <v>29</v>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B158">
+        <v>2018</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B159">
+        <v>2018</v>
+      </c>
+      <c r="C159" t="s">
+        <v>25</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E159">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B160">
+        <v>2018</v>
+      </c>
+      <c r="C160" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E160">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B161">
+        <v>2017</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B162">
+        <v>2017</v>
+      </c>
+      <c r="C162" t="s">
+        <v>25</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E162">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B163">
+        <v>2017</v>
+      </c>
+      <c r="C163" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E163">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B164">
+        <v>2016</v>
+      </c>
+      <c r="C164" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B165">
+        <v>2016</v>
+      </c>
+      <c r="C165" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E165">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B166">
+        <v>2016</v>
+      </c>
+      <c r="C166" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E166">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B167">
+        <v>2015</v>
+      </c>
+      <c r="C167" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B168">
+        <v>2015</v>
+      </c>
+      <c r="C168" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E168">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B169">
+        <v>2015</v>
+      </c>
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E169">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B170">
+        <v>2014</v>
+      </c>
+      <c r="C170" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B171">
+        <v>2014</v>
+      </c>
+      <c r="C171" t="s">
+        <v>25</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E171">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B172">
+        <v>2014</v>
+      </c>
+      <c r="C172" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E172">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B173">
+        <v>2013</v>
+      </c>
+      <c r="C173" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B174">
+        <v>2013</v>
+      </c>
+      <c r="C174" t="s">
+        <v>25</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E174">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B175">
+        <v>2013</v>
+      </c>
+      <c r="C175" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E175">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B176">
+        <v>2012</v>
+      </c>
+      <c r="C176" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B177">
+        <v>2012</v>
+      </c>
+      <c r="C177" t="s">
+        <v>25</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E177">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B178">
+        <v>2012</v>
+      </c>
+      <c r="C178" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E178">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B179">
+        <v>2011</v>
+      </c>
+      <c r="C179" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B180">
+        <v>2011</v>
+      </c>
+      <c r="C180" t="s">
+        <v>25</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E180">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B181">
+        <v>2011</v>
+      </c>
+      <c r="C181" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E181">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A110:E118">
+    <sortCondition ref="B110:B118"/>
+  </sortState>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/formats/regpexpr/rg_curseurs.xlsx
+++ b/formats/regpexpr/rg_curseurs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/regpexpr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1B4A3C-FDD5-884B-A6DE-56B5003A650E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB2C1D4-C59B-3A44-A4E5-1DD2031E536F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="460" windowWidth="27340" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="40">
   <si>
     <t>table</t>
   </si>
@@ -141,6 +141,18 @@
   </si>
   <si>
     <t>.{1,9}</t>
+  </si>
+  <si>
+    <t>ssrha_gme</t>
+  </si>
+  <si>
+    <t>zgme</t>
+  </si>
+  <si>
+    <t>.{1,13}</t>
+  </si>
+  <si>
+    <t>.{1,14}</t>
   </si>
 </sst>
 </file>
@@ -498,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="141" workbookViewId="0">
-      <selection activeCell="A181" sqref="A181"/>
+    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="141" workbookViewId="0">
+      <selection activeCell="B189" sqref="B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3584,6 +3596,125 @@
       </c>
       <c r="E181">
         <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B182">
+        <v>2017</v>
+      </c>
+      <c r="C182" t="s">
+        <v>37</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E182">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B183">
+        <v>2018</v>
+      </c>
+      <c r="C183" t="s">
+        <v>37</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E183">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B184">
+        <v>2019</v>
+      </c>
+      <c r="C184" t="s">
+        <v>37</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E184">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B185">
+        <v>2020</v>
+      </c>
+      <c r="C185" t="s">
+        <v>37</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E185">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B186">
+        <v>2021</v>
+      </c>
+      <c r="C186" t="s">
+        <v>37</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E186">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B187">
+        <v>2022</v>
+      </c>
+      <c r="C187" t="s">
+        <v>37</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E187">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B188">
+        <v>2023</v>
+      </c>
+      <c r="C188" t="s">
+        <v>37</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E188">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/formats/regpexpr/rg_curseurs.xlsx
+++ b/formats/regpexpr/rg_curseurs.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/GitHub/formats_pmeasyr/formats/regpexpr/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCD02A5-B38E-8248-8433-2B48DC8B7AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId4"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId5"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId6"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="40">
   <si>
     <t>table</t>
   </si>
@@ -138,23 +147,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -192,32 +188,14 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -226,23 +204,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Thème Office">
       <a:dk1>
@@ -368,7 +408,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -377,7 +417,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -386,7 +426,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -460,7 +500,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -468,7 +508,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -486,7 +526,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -515,7 +555,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -540,7 +580,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -565,7 +605,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -590,7 +630,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -615,7 +655,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -640,7 +680,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -665,7 +705,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -690,7 +730,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -715,7 +755,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -728,9 +768,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -745,7 +791,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -753,7 +799,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -771,7 +817,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -796,7 +842,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -821,7 +867,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -846,7 +892,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -871,7 +917,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -896,7 +942,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -921,7 +967,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -946,7 +992,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -971,7 +1017,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -996,7 +1042,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1009,9 +1055,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1025,7 +1077,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1043,7 +1095,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1072,7 +1124,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1097,7 +1149,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1122,7 +1174,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1147,7 +1199,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1172,7 +1224,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1197,7 +1249,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1222,7 +1274,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1247,7 +1299,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1272,7 +1324,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1285,3382 +1337,3544 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E197"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E206"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A181" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198:B206"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3">
         <v>2017</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s" s="2">
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>2017</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>2017</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3">
         <v>2017</v>
       </c>
-      <c r="C5" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s" s="2">
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>2016</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s" s="2">
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="2">
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>2016</v>
       </c>
-      <c r="C7" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s" s="2">
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" t="s" s="2">
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3">
         <v>2016</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s" s="2">
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" t="s" s="2">
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3">
         <v>2016</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="3">
         <v>2015</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" t="s" s="2">
+    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3">
         <v>2015</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" t="s" s="2">
+    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="3">
         <v>2015</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" t="s" s="2">
+    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="3">
         <v>2015</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" t="s" s="2">
+    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="3">
         <v>2014</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s" s="2">
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" t="s" s="2">
+    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="3">
         <v>2014</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s" s="2">
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" t="s" s="2">
+    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="3">
         <v>2014</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" t="s" s="2">
+    <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="3">
         <v>2014</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" t="s" s="2">
+    <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="3">
         <v>2013</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" t="s" s="2">
+    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="3">
         <v>2013</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s" s="2">
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" t="s" s="2">
+    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="3">
         <v>2013</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" t="s" s="2">
+    <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="3">
         <v>2013</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" t="s" s="2">
+    <row r="22" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="3">
         <v>2012</v>
       </c>
-      <c r="C22" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s" s="2">
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" t="s" s="2">
+    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="3">
         <v>2012</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s" s="2">
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" t="s" s="2">
+    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="3">
         <v>2012</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" t="s" s="2">
+    <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="3">
         <v>2012</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" t="s" s="2">
+    <row r="26" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="3">
         <v>2011</v>
       </c>
-      <c r="C26" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s" s="2">
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" t="s" s="2">
+    <row r="27" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="3">
         <v>2011</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" t="s" s="2">
+    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="3">
         <v>2011</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E28" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="29" ht="13.55" customHeight="1">
-      <c r="A29" t="s" s="2">
+    <row r="29" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="3">
         <v>2011</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="30" ht="13.55" customHeight="1">
-      <c r="A30" t="s" s="2">
+    <row r="30" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="3">
         <v>2011</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="31" ht="13.55" customHeight="1">
-      <c r="A31" t="s" s="2">
+    <row r="31" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="3">
         <v>2011</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="32" ht="13.55" customHeight="1">
-      <c r="A32" t="s" s="2">
+    <row r="32" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="3">
         <v>2011</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="33" ht="13.55" customHeight="1">
-      <c r="A33" t="s" s="2">
+    <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="3">
         <v>2011</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="34" ht="13.55" customHeight="1">
-      <c r="A34" t="s" s="2">
+    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="3">
         <v>2012</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E34" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="35" ht="13.55" customHeight="1">
-      <c r="A35" t="s" s="2">
+    <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B35" s="3">
         <v>2012</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s" s="2">
+      <c r="C35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="36" ht="13.55" customHeight="1">
-      <c r="A36" t="s" s="2">
+    <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="3">
         <v>2012</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="37" ht="13.55" customHeight="1">
-      <c r="A37" t="s" s="2">
+    <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="3">
         <v>2012</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D37" t="s" s="2">
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="38" ht="13.55" customHeight="1">
-      <c r="A38" t="s" s="2">
+    <row r="38" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="3">
         <v>2013</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="39" ht="13.55" customHeight="1">
-      <c r="A39" t="s" s="2">
+    <row r="39" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="3">
         <v>2013</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="40" ht="13.55" customHeight="1">
-      <c r="A40" t="s" s="2">
+    <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="3">
         <v>2013</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="41" ht="13.55" customHeight="1">
-      <c r="A41" t="s" s="2">
+    <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="3">
         <v>2013</v>
       </c>
-      <c r="C41" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D41" t="s" s="2">
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="42" ht="13.55" customHeight="1">
-      <c r="A42" t="s" s="2">
+    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B42" s="3">
         <v>2014</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="43" ht="13.55" customHeight="1">
-      <c r="A43" t="s" s="2">
+    <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="3">
         <v>2014</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D43" t="s" s="2">
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E43" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="44" ht="13.55" customHeight="1">
-      <c r="A44" t="s" s="2">
+    <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B44" s="3">
         <v>2014</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E44" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="45" ht="13.55" customHeight="1">
-      <c r="A45" t="s" s="2">
+    <row r="45" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B45" s="3">
         <v>2014</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E45" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="46" ht="13.55" customHeight="1">
-      <c r="A46" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="B46" t="s" s="2">
+    <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="47" ht="13.55" customHeight="1">
-      <c r="A47" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="B47" t="s" s="2">
+    <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="48" ht="13.55" customHeight="1">
-      <c r="A48" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="B48" t="s" s="2">
+    <row r="48" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E48" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="49" ht="13.55" customHeight="1">
-      <c r="A49" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="B49" t="s" s="2">
+    <row r="49" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="50" ht="13.55" customHeight="1">
-      <c r="A50" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="B50" t="s" s="2">
+    <row r="50" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E50" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="51" ht="13.55" customHeight="1">
-      <c r="A51" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="B51" t="s" s="2">
+    <row r="51" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C51" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D51" t="s" s="2">
+      <c r="C51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="52" ht="13.55" customHeight="1">
-      <c r="A52" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="B52" t="s" s="2">
+    <row r="52" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E52" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="53" ht="13.55" customHeight="1">
-      <c r="A53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="B53" t="s" s="2">
+    <row r="53" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="54" ht="13.55" customHeight="1">
-      <c r="A54" t="s" s="2">
+    <row r="54" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="3">
         <v>2016</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E54" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="55" ht="13.55" customHeight="1">
-      <c r="A55" t="s" s="2">
+    <row r="55" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B55" s="3">
         <v>2016</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E55" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="56" ht="13.55" customHeight="1">
-      <c r="A56" t="s" s="2">
+    <row r="56" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B56" s="3">
         <v>2016</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E56" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="57" ht="13.55" customHeight="1">
-      <c r="A57" t="s" s="2">
+    <row r="57" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B57" s="3">
         <v>2016</v>
       </c>
-      <c r="C57" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D57" t="s" s="2">
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E57" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="58" ht="13.55" customHeight="1">
-      <c r="A58" t="s" s="2">
+    <row r="58" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B58" s="3">
         <v>2017</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D58" t="s" s="2">
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E58" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="59" ht="13.55" customHeight="1">
-      <c r="A59" t="s" s="2">
+    <row r="59" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B59" s="3">
         <v>2017</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E59" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="60" ht="13.55" customHeight="1">
-      <c r="A60" t="s" s="2">
+    <row r="60" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B60" s="3">
         <v>2017</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E60" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="61" ht="13.55" customHeight="1">
-      <c r="A61" t="s" s="2">
+    <row r="61" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B61" s="3">
         <v>2017</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E61" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="62" ht="13.55" customHeight="1">
-      <c r="A62" t="s" s="2">
+    <row r="62" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B62" s="3">
         <v>2018</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E62" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="63" ht="13.55" customHeight="1">
-      <c r="A63" t="s" s="2">
+    <row r="63" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B63" s="3">
         <v>2018</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E63" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="64" ht="13.55" customHeight="1">
-      <c r="A64" t="s" s="2">
+    <row r="64" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B64" s="3">
         <v>2018</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E64" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="65" ht="13.55" customHeight="1">
-      <c r="A65" t="s" s="2">
+    <row r="65" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B65" s="3">
         <v>2018</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E65" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="66" ht="13.55" customHeight="1">
-      <c r="A66" t="s" s="2">
+    <row r="66" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B66" s="3">
         <v>2018</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E66" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="67" ht="13.55" customHeight="1">
-      <c r="A67" t="s" s="2">
+    <row r="67" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="3">
         <v>2018</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D67" t="s" s="2">
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="68" ht="13.55" customHeight="1">
-      <c r="A68" t="s" s="2">
+    <row r="68" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B68" s="3">
         <v>2018</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="69" ht="13.55" customHeight="1">
-      <c r="A69" t="s" s="2">
+    <row r="69" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B69" s="3">
         <v>2018</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E69" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="70" ht="13.55" customHeight="1">
-      <c r="A70" t="s" s="2">
+    <row r="70" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B70" s="3">
         <v>2019</v>
       </c>
-      <c r="C70" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D70" t="s" s="2">
+      <c r="C70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E70" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="71" ht="13.55" customHeight="1">
-      <c r="A71" t="s" s="2">
+    <row r="71" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B71" s="3">
         <v>2019</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E71" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="72" ht="13.55" customHeight="1">
-      <c r="A72" t="s" s="2">
+    <row r="72" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B72" s="3">
         <v>2019</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E72" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="73" ht="13.55" customHeight="1">
-      <c r="A73" t="s" s="2">
+    <row r="73" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B73" s="3">
         <v>2019</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E73" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="74" ht="13.55" customHeight="1">
-      <c r="A74" t="s" s="2">
+    <row r="74" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B74" s="3">
         <v>2019</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E74" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="75" ht="13.55" customHeight="1">
-      <c r="A75" t="s" s="2">
+    <row r="75" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B75" s="3">
         <v>2019</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D75" t="s" s="2">
+      <c r="C75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="76" ht="13.55" customHeight="1">
-      <c r="A76" t="s" s="2">
+    <row r="76" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B76" s="3">
         <v>2019</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E76" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="77" ht="13.55" customHeight="1">
-      <c r="A77" t="s" s="2">
+    <row r="77" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B77" s="3">
         <v>2019</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D77" t="s" s="2">
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E77" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="78" ht="13.55" customHeight="1">
-      <c r="A78" t="s" s="2">
+    <row r="78" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B78" s="3">
         <v>2020</v>
       </c>
-      <c r="C78" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D78" t="s" s="2">
+      <c r="C78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E78" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="79" ht="13.55" customHeight="1">
-      <c r="A79" t="s" s="2">
+    <row r="79" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B79" s="3">
         <v>2020</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E79" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="80" ht="13.55" customHeight="1">
-      <c r="A80" t="s" s="2">
+    <row r="80" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B80" s="3">
         <v>2020</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E80" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="81" ht="13.55" customHeight="1">
-      <c r="A81" t="s" s="2">
+    <row r="81" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B81" s="3">
         <v>2020</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E81" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="82" ht="13.55" customHeight="1">
-      <c r="A82" t="s" s="2">
+    <row r="82" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B82" s="3">
         <v>2020</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D82" t="s" s="2">
+      <c r="C82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E82" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="83" ht="13.55" customHeight="1">
-      <c r="A83" t="s" s="2">
+    <row r="83" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B83" s="3">
         <v>2020</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E83" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="84" ht="13.55" customHeight="1">
-      <c r="A84" t="s" s="2">
+    <row r="84" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B84" s="3">
         <v>2020</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E84" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="85" ht="13.55" customHeight="1">
-      <c r="A85" t="s" s="2">
+    <row r="85" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B85" s="3">
         <v>2020</v>
       </c>
-      <c r="C85" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D85" t="s" s="2">
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E85" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="86" ht="13.55" customHeight="1">
-      <c r="A86" t="s" s="2">
+    <row r="86" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B86" s="3">
         <v>2021</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E86" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="87" ht="13.55" customHeight="1">
-      <c r="A87" t="s" s="2">
+    <row r="87" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B87" s="3">
         <v>2021</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E87" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="88" ht="13.55" customHeight="1">
-      <c r="A88" t="s" s="2">
+    <row r="88" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B88" s="3">
         <v>2021</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E88" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="89" ht="13.55" customHeight="1">
-      <c r="A89" t="s" s="2">
+    <row r="89" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B89" s="3">
         <v>2021</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E89" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="90" ht="13.55" customHeight="1">
-      <c r="A90" t="s" s="2">
+    <row r="90" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B90" s="3">
         <v>2021</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E90" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="91" ht="13.55" customHeight="1">
-      <c r="A91" t="s" s="2">
+    <row r="91" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B91" s="3">
         <v>2021</v>
       </c>
-      <c r="C91" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D91" t="s" s="2">
+      <c r="C91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E91" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="92" ht="13.55" customHeight="1">
-      <c r="A92" t="s" s="2">
+    <row r="92" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B92" s="3">
         <v>2021</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E92" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="93" ht="13.55" customHeight="1">
-      <c r="A93" t="s" s="2">
+    <row r="93" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B93" s="3">
         <v>2021</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E93" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="94" ht="13.55" customHeight="1">
-      <c r="A94" t="s" s="2">
+    <row r="94" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B94" s="3">
         <v>2022</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E94" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="95" ht="13.55" customHeight="1">
-      <c r="A95" t="s" s="2">
+    <row r="95" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B95" s="3">
         <v>2022</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E95" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="96" ht="13.55" customHeight="1">
-      <c r="A96" t="s" s="2">
+    <row r="96" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B96" s="3">
         <v>2022</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E96" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="97" ht="13.55" customHeight="1">
-      <c r="A97" t="s" s="2">
+    <row r="97" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B97" s="3">
         <v>2022</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E97" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="98" ht="13.55" customHeight="1">
-      <c r="A98" t="s" s="2">
+    <row r="98" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B98" s="3">
         <v>2022</v>
       </c>
-      <c r="C98" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D98" t="s" s="2">
+      <c r="C98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E98" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="99" ht="13.55" customHeight="1">
-      <c r="A99" t="s" s="2">
+    <row r="99" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B99" s="3">
         <v>2022</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E99" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="100" ht="13.55" customHeight="1">
-      <c r="A100" t="s" s="2">
+    <row r="100" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B100" s="3">
         <v>2022</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E100" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="101" ht="13.55" customHeight="1">
-      <c r="A101" t="s" s="2">
+    <row r="101" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B101" s="3">
         <v>2022</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E101" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="102" ht="13.55" customHeight="1">
-      <c r="A102" t="s" s="2">
+    <row r="102" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B102" s="3">
         <v>2023</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E102" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="103" ht="13.55" customHeight="1">
-      <c r="A103" t="s" s="2">
+    <row r="103" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B103" s="3">
         <v>2023</v>
       </c>
-      <c r="C103" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D103" t="s" s="2">
+      <c r="C103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E103" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="104" ht="13.55" customHeight="1">
-      <c r="A104" t="s" s="2">
+    <row r="104" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B104" s="3">
         <v>2023</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E104" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="105" ht="13.55" customHeight="1">
-      <c r="A105" t="s" s="2">
+    <row r="105" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B105" s="3">
         <v>2023</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E105" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="106" ht="13.55" customHeight="1">
-      <c r="A106" t="s" s="2">
+    <row r="106" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B106" s="3">
         <v>2023</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E106" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="107" ht="13.55" customHeight="1">
-      <c r="A107" t="s" s="2">
+    <row r="107" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B107" s="3">
         <v>2023</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E107" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="108" ht="13.55" customHeight="1">
-      <c r="A108" t="s" s="2">
+    <row r="108" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B108" s="3">
         <v>2023</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E108" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="109" ht="13.55" customHeight="1">
-      <c r="A109" t="s" s="2">
+    <row r="109" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B109" s="3">
         <v>2023</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E109" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="110" ht="13.55" customHeight="1">
-      <c r="A110" t="s" s="2">
+    <row r="110" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B110" s="3">
         <v>2015</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E110" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="111" ht="13.55" customHeight="1">
-      <c r="A111" t="s" s="2">
+    <row r="111" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B111" s="3">
         <v>2015</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E111" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="112" ht="13.55" customHeight="1">
-      <c r="A112" t="s" s="2">
+    <row r="112" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B112" s="3">
         <v>2015</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E112" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="113" ht="13.55" customHeight="1">
-      <c r="A113" t="s" s="2">
+    <row r="113" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B113" s="3">
         <v>2016</v>
       </c>
-      <c r="C113" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D113" t="s" s="2">
+      <c r="C113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E113" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="114" ht="13.55" customHeight="1">
-      <c r="A114" t="s" s="2">
+    <row r="114" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B114" s="3">
         <v>2016</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E114" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="115" ht="13.55" customHeight="1">
-      <c r="A115" t="s" s="2">
+    <row r="115" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B115" s="3">
         <v>2016</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E115" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="116" ht="13.55" customHeight="1">
-      <c r="A116" t="s" s="2">
+    <row r="116" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B116" s="3">
         <v>2017</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E116" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="117" ht="13.55" customHeight="1">
-      <c r="A117" t="s" s="2">
+    <row r="117" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B117" s="3">
         <v>2017</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E117" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="118" ht="13.55" customHeight="1">
-      <c r="A118" t="s" s="2">
+    <row r="118" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B118" s="3">
         <v>2017</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E118" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="119" ht="13.55" customHeight="1">
-      <c r="A119" t="s" s="2">
+    <row r="119" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B119" s="3">
         <v>2018</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E119" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="120" ht="13.55" customHeight="1">
-      <c r="A120" t="s" s="2">
+    <row r="120" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B120" s="3">
         <v>2018</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E120" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="121" ht="13.55" customHeight="1">
-      <c r="A121" t="s" s="2">
+    <row r="121" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B121" s="3">
         <v>2018</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E121" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="122" ht="13.55" customHeight="1">
-      <c r="A122" t="s" s="2">
+    <row r="122" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B122" s="3">
         <v>2014</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E122" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="123" ht="13.55" customHeight="1">
-      <c r="A123" t="s" s="2">
+    <row r="123" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B123" s="3">
         <v>2014</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E123" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="124" ht="13.55" customHeight="1">
-      <c r="A124" t="s" s="2">
+    <row r="124" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B124" s="3">
         <v>2014</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E124" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="125" ht="13.55" customHeight="1">
-      <c r="A125" t="s" s="2">
+    <row r="125" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B125" s="3">
         <v>2013</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E125" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="126" ht="13.55" customHeight="1">
-      <c r="A126" t="s" s="2">
+    <row r="126" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B126" s="3">
         <v>2013</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E126" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="127" ht="13.55" customHeight="1">
-      <c r="A127" t="s" s="2">
+    <row r="127" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B127" s="3">
         <v>2013</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E127" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="128" ht="13.55" customHeight="1">
-      <c r="A128" t="s" s="2">
+    <row r="128" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B128" s="3">
         <v>2012</v>
       </c>
-      <c r="C128" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D128" t="s" s="2">
+      <c r="C128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E128" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="129" ht="13.55" customHeight="1">
-      <c r="A129" t="s" s="2">
+    <row r="129" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B129" s="3">
         <v>2012</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E129" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="130" ht="13.55" customHeight="1">
-      <c r="A130" t="s" s="2">
+    <row r="130" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B130" s="3">
         <v>2012</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E130" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="131" ht="13.55" customHeight="1">
-      <c r="A131" t="s" s="2">
+    <row r="131" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B131" s="3">
         <v>2011</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E131" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="132" ht="13.55" customHeight="1">
-      <c r="A132" t="s" s="2">
+    <row r="132" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B132" s="3">
         <v>2011</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E132" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="133" ht="13.55" customHeight="1">
-      <c r="A133" t="s" s="2">
+    <row r="133" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B133" s="3">
         <v>2011</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E133" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="134" ht="13.55" customHeight="1">
-      <c r="A134" t="s" s="2">
+    <row r="134" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B134" s="3">
         <v>2020</v>
       </c>
-      <c r="C134" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D134" t="s" s="2">
+      <c r="C134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E134" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="135" ht="13.55" customHeight="1">
-      <c r="A135" t="s" s="2">
+    <row r="135" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B135" s="3">
         <v>2020</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E135" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="136" ht="13.55" customHeight="1">
-      <c r="A136" t="s" s="2">
+    <row r="136" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B136" s="3">
         <v>2020</v>
       </c>
-      <c r="C136" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D136" t="s" s="2">
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E136" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="137" ht="13.55" customHeight="1">
-      <c r="A137" t="s" s="2">
+    <row r="137" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B137" s="3">
         <v>2019</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E137" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="138" ht="13.55" customHeight="1">
-      <c r="A138" t="s" s="2">
+    <row r="138" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B138" s="3">
         <v>2019</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E138" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="139" ht="13.55" customHeight="1">
-      <c r="A139" t="s" s="2">
+    <row r="139" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B139" s="3">
         <v>2019</v>
       </c>
-      <c r="C139" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D139" t="s" s="2">
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E139" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="140" ht="13.55" customHeight="1">
-      <c r="A140" t="s" s="2">
+    <row r="140" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B140" s="3">
         <v>2021</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E140" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="141" ht="13.55" customHeight="1">
-      <c r="A141" t="s" s="2">
+    <row r="141" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B141" s="3">
         <v>2021</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E141" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="142" ht="13.55" customHeight="1">
-      <c r="A142" t="s" s="2">
+    <row r="142" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B142" s="3">
         <v>2021</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E142" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="143" ht="13.55" customHeight="1">
-      <c r="A143" t="s" s="2">
+    <row r="143" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B143" s="3">
         <v>2022</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E143" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="144" ht="13.55" customHeight="1">
-      <c r="A144" t="s" s="2">
+    <row r="144" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B144" s="3">
         <v>2022</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E144" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="145" ht="13.55" customHeight="1">
-      <c r="A145" t="s" s="2">
+    <row r="145" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B145" s="3">
         <v>2022</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D145" t="s" s="2">
+      <c r="C145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E145" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="146" ht="13.55" customHeight="1">
-      <c r="A146" t="s" s="2">
+    <row r="146" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B146" s="3">
         <v>2022</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E146" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="147" ht="13.55" customHeight="1">
-      <c r="A147" t="s" s="2">
+    <row r="147" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B147" s="3">
         <v>2022</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E147" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="148" ht="13.55" customHeight="1">
-      <c r="A148" t="s" s="2">
+    <row r="148" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B148" s="3">
         <v>2022</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E148" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="149" ht="13.55" customHeight="1">
-      <c r="A149" t="s" s="2">
+    <row r="149" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B149" s="3">
         <v>2021</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E149" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="150" ht="13.55" customHeight="1">
-      <c r="A150" t="s" s="2">
+    <row r="150" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B150" s="3">
         <v>2021</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E150" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="151" ht="13.55" customHeight="1">
-      <c r="A151" t="s" s="2">
+    <row r="151" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B151" s="3">
         <v>2021</v>
       </c>
-      <c r="C151" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D151" t="s" s="2">
+      <c r="C151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E151" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="152" ht="13.55" customHeight="1">
-      <c r="A152" t="s" s="2">
+    <row r="152" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B152" s="3">
         <v>2020</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E152" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="153" ht="13.55" customHeight="1">
-      <c r="A153" t="s" s="2">
+    <row r="153" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B153" s="3">
         <v>2020</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E153" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="154" ht="13.55" customHeight="1">
-      <c r="A154" t="s" s="2">
+    <row r="154" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B154" s="3">
         <v>2020</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E154" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="155" ht="13.55" customHeight="1">
-      <c r="A155" t="s" s="2">
+    <row r="155" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B155" s="3">
         <v>2019</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E155" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="156" ht="13.55" customHeight="1">
-      <c r="A156" t="s" s="2">
+    <row r="156" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B156" s="3">
         <v>2019</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E156" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="157" ht="13.55" customHeight="1">
-      <c r="A157" t="s" s="2">
+    <row r="157" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B157" s="3">
         <v>2019</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E157" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="158" ht="13.55" customHeight="1">
-      <c r="A158" t="s" s="2">
+    <row r="158" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B158" s="3">
         <v>2018</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E158" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="159" ht="13.55" customHeight="1">
-      <c r="A159" t="s" s="2">
+    <row r="159" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B159" s="3">
         <v>2018</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E159" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="160" ht="13.55" customHeight="1">
-      <c r="A160" t="s" s="2">
+    <row r="160" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B160" s="3">
         <v>2018</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E160" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="161" ht="13.55" customHeight="1">
-      <c r="A161" t="s" s="2">
+    <row r="161" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B161" s="3">
         <v>2017</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E161" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="162" ht="13.55" customHeight="1">
-      <c r="A162" t="s" s="2">
+    <row r="162" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B162" s="3">
         <v>2017</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E162" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="163" ht="13.55" customHeight="1">
-      <c r="A163" t="s" s="2">
+    <row r="163" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B163" s="3">
         <v>2017</v>
       </c>
-      <c r="C163" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D163" t="s" s="2">
+      <c r="C163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E163" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="164" ht="13.55" customHeight="1">
-      <c r="A164" t="s" s="2">
+    <row r="164" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B164" s="3">
         <v>2016</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E164" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="165" ht="13.55" customHeight="1">
-      <c r="A165" t="s" s="2">
+    <row r="165" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B165" s="3">
         <v>2016</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E165" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="166" ht="13.55" customHeight="1">
-      <c r="A166" t="s" s="2">
+    <row r="166" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B166" s="3">
         <v>2016</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E166" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="167" ht="13.55" customHeight="1">
-      <c r="A167" t="s" s="2">
+    <row r="167" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B167" s="3">
         <v>2015</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E167" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="168" ht="13.55" customHeight="1">
-      <c r="A168" t="s" s="2">
+    <row r="168" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B168" s="3">
         <v>2015</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E168" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="169" ht="13.55" customHeight="1">
-      <c r="A169" t="s" s="2">
+    <row r="169" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B169" s="3">
         <v>2015</v>
       </c>
-      <c r="C169" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D169" t="s" s="2">
+      <c r="C169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E169" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="170" ht="13.55" customHeight="1">
-      <c r="A170" t="s" s="2">
+    <row r="170" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B170" s="3">
         <v>2014</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E170" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="171" ht="13.55" customHeight="1">
-      <c r="A171" t="s" s="2">
+    <row r="171" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B171" s="3">
         <v>2014</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E171" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="172" ht="13.55" customHeight="1">
-      <c r="A172" t="s" s="2">
+    <row r="172" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B172" s="3">
         <v>2014</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E172" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="173" ht="13.55" customHeight="1">
-      <c r="A173" t="s" s="2">
+    <row r="173" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B173" s="3">
         <v>2013</v>
       </c>
-      <c r="C173" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D173" t="s" s="2">
+      <c r="C173" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E173" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="174" ht="13.55" customHeight="1">
-      <c r="A174" t="s" s="2">
+    <row r="174" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B174" s="3">
         <v>2013</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E174" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="175" ht="13.55" customHeight="1">
-      <c r="A175" t="s" s="2">
+    <row r="175" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B175" s="3">
         <v>2013</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E175" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="176" ht="13.55" customHeight="1">
-      <c r="A176" t="s" s="2">
+    <row r="176" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B176" s="3">
         <v>2012</v>
       </c>
-      <c r="C176" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D176" t="s" s="2">
+      <c r="C176" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E176" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="177" ht="13.55" customHeight="1">
-      <c r="A177" t="s" s="2">
+    <row r="177" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B177" s="3">
         <v>2012</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E177" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="178" ht="13.55" customHeight="1">
-      <c r="A178" t="s" s="2">
+    <row r="178" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B178" s="3">
         <v>2012</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E178" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="179" ht="13.55" customHeight="1">
-      <c r="A179" t="s" s="2">
+    <row r="179" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B179" s="3">
         <v>2011</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E179" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="180" ht="13.55" customHeight="1">
-      <c r="A180" t="s" s="2">
+    <row r="180" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B180" s="3">
         <v>2011</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E180" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="181" ht="13.55" customHeight="1">
-      <c r="A181" t="s" s="2">
+    <row r="181" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B181" s="3">
         <v>2011</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E181" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="182" ht="13.55" customHeight="1">
-      <c r="A182" t="s" s="2">
+    <row r="182" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B182" s="3">
         <v>2017</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E182" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="183" ht="13.55" customHeight="1">
-      <c r="A183" t="s" s="2">
+    <row r="183" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B183" s="3">
         <v>2018</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E183" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="184" ht="13.55" customHeight="1">
-      <c r="A184" t="s" s="2">
+    <row r="184" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B184" s="3">
         <v>2019</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E184" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="185" ht="13.55" customHeight="1">
-      <c r="A185" t="s" s="2">
+    <row r="185" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B185" s="3">
         <v>2020</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E185" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="186" ht="13.55" customHeight="1">
-      <c r="A186" t="s" s="2">
+    <row r="186" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B186" s="3">
         <v>2021</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E186" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="187" ht="13.55" customHeight="1">
-      <c r="A187" t="s" s="2">
+    <row r="187" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B187" s="3">
         <v>2022</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E187" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="188" ht="13.55" customHeight="1">
-      <c r="A188" t="s" s="2">
+    <row r="188" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B188" s="3">
         <v>2023</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E188" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="189" ht="13.55" customHeight="1">
-      <c r="A189" t="s" s="2">
+    <row r="189" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B189" s="3">
         <v>2024</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E189" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="190" ht="13.55" customHeight="1">
-      <c r="A190" t="s" s="2">
+    <row r="190" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B190" s="3">
         <v>2024</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E190" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="191" ht="13.55" customHeight="1">
-      <c r="A191" t="s" s="2">
+    <row r="191" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B191" s="3">
         <v>2024</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E191" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="192" ht="13.55" customHeight="1">
-      <c r="A192" t="s" s="2">
+    <row r="192" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B192" s="3">
         <v>2024</v>
       </c>
-      <c r="C192" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D192" t="s" s="2">
+      <c r="C192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E192" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="193" ht="13.55" customHeight="1">
-      <c r="A193" t="s" s="2">
+    <row r="193" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B193" s="3">
         <v>2024</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E193" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="194" ht="13.55" customHeight="1">
-      <c r="A194" t="s" s="2">
+    <row r="194" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B194" s="3">
         <v>2024</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E194" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="195" ht="13.55" customHeight="1">
-      <c r="A195" t="s" s="2">
+    <row r="195" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B195" s="3">
         <v>2024</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E195" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="196" ht="13.55" customHeight="1">
-      <c r="A196" t="s" s="2">
+    <row r="196" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B196" s="3">
         <v>2024</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E196" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="197" ht="13.55" customHeight="1">
-      <c r="A197" t="s" s="2">
+    <row r="197" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B197" s="3">
         <v>2024</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E197" s="3">
         <v>14</v>
       </c>
     </row>
+    <row r="198" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="3">
+        <v>2025</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" s="3">
+        <v>2025</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" s="3">
+        <v>2025</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E200" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" s="3">
+        <v>2025</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E201" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B202" s="3">
+        <v>2025</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B203" s="3">
+        <v>2025</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E203" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B204" s="3">
+        <v>2025</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E204" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B205" s="3">
+        <v>2025</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E205" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B206" s="3">
+        <v>2025</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E206" s="3">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.69930599999999998" right="0.69930599999999998" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4668,90 +4882,90 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="9" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4" customWidth="1"/>
+    <col min="1" max="6" width="9" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.69930599999999998" right="0.69930599999999998" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4759,90 +4973,90 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="9" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="6" customWidth="1"/>
+    <col min="1" max="6" width="9" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.69930599999999998" right="0.69930599999999998" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/formats/regpexpr/rg_curseurs.xlsx
+++ b/formats/regpexpr/rg_curseurs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/GitHub/formats_pmeasyr/formats/regpexpr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCD02A5-B38E-8248-8433-2B48DC8B7AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBA342B-E124-0148-9CD0-CE21274A90CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,24 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="40">
   <si>
     <t>table</t>
   </si>
@@ -148,11 +160,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -190,12 +208,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1356,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E206"/>
+  <dimension ref="A1:E215"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A181" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198:B206"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A193" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D213" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4869,6 +4888,159 @@
         <v>39</v>
       </c>
       <c r="E206" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" s="3">
+        <v>2026</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" s="3">
+        <v>2026</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E208" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="3">
+        <v>2026</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E209" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" s="3">
+        <v>2026</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E210" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B211" s="3">
+        <v>2026</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B212" s="3">
+        <v>2026</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E212" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B213" s="3">
+        <v>2026</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E213" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B214" s="3">
+        <v>2026</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E214" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B215" s="3">
+        <v>2026</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E215" s="3">
         <v>14</v>
       </c>
     </row>
